--- a/Documents/DebtPlan11_05_20.xlsx
+++ b/Documents/DebtPlan11_05_20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CodeBase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46965D7A-AA8D-4F89-88CC-F3E7E6ADF6C8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB71ACA-3AFF-4D8A-9B1B-B43B01C04089}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,15 +78,6 @@
     <t>School Payment</t>
   </si>
   <si>
-    <t>Paycheck+Sick</t>
-  </si>
-  <si>
-    <t>Paycheck+Taxes</t>
-  </si>
-  <si>
-    <t>Paycheck+Tuition</t>
-  </si>
-  <si>
     <t>Anticipated Expenses</t>
   </si>
   <si>
@@ -100,6 +91,15 @@
   </si>
   <si>
     <t>3rd Paycheck</t>
+  </si>
+  <si>
+    <t>Sick</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Cards</t>
   </si>
 </sst>
 </file>
@@ -995,7 +995,7 @@
   <dimension ref="C1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L33" sqref="L32:L33"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1140,7 +1140,7 @@
         <v>3500</v>
       </c>
       <c r="H7" s="6">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I7" s="8">
         <v>400</v>
@@ -1152,11 +1152,11 @@
       <c r="L7" s="2"/>
       <c r="M7" s="19">
         <f>D7+H7-I7-J7-K7+M6</f>
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N7" s="20">
         <f>M7-F7-G7</f>
-        <v>-4450</v>
+        <v>-4650</v>
       </c>
     </row>
     <row r="8" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1164,14 +1164,14 @@
         <v>44169</v>
       </c>
       <c r="D8" s="18">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F8" s="7">
         <f t="shared" si="0"/>
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="G8" s="7">
         <f t="shared" si="1"/>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="8">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J8" s="8">
         <v>0</v>
@@ -1190,11 +1190,11 @@
       <c r="L8" s="2"/>
       <c r="M8" s="19">
         <f>D8+H8-I8-J8-K8+M7</f>
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="N8" s="20">
         <f t="shared" ref="N8:N19" si="2">M8-F8-G8</f>
-        <v>-4250</v>
+        <v>-3650</v>
       </c>
     </row>
     <row r="9" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1202,14 +1202,14 @@
         <v>44183</v>
       </c>
       <c r="D9" s="18">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F9" s="7">
         <f t="shared" si="0"/>
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" si="1"/>
@@ -1232,11 +1232,11 @@
       </c>
       <c r="M9" s="19">
         <f t="shared" ref="M9:M19" si="3">D9+H9-I9-J9-K9+M8</f>
-        <v>-400</v>
+        <v>200</v>
       </c>
       <c r="N9" s="20">
         <f t="shared" si="2"/>
-        <v>-4650</v>
+        <v>-4250</v>
       </c>
     </row>
     <row r="10" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1247,7 +1247,7 @@
         <v>700</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F10" s="7">
         <f t="shared" si="0"/>
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="8">
-        <v>750</v>
+        <v>950</v>
       </c>
       <c r="J10" s="8">
         <v>0</v>
@@ -1270,11 +1270,11 @@
       <c r="L10" s="2"/>
       <c r="M10" s="19">
         <f t="shared" si="3"/>
-        <v>-450</v>
+        <v>-50</v>
       </c>
       <c r="N10" s="20">
         <f t="shared" si="2"/>
-        <v>-3950</v>
+        <v>-3550</v>
       </c>
     </row>
     <row r="11" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1282,10 +1282,10 @@
         <v>44211</v>
       </c>
       <c r="D11" s="18">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" si="0"/>
@@ -1358,10 +1358,10 @@
         <v>44239</v>
       </c>
       <c r="D13" s="18">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="G13" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="H13" s="6">
         <v>0</v>
@@ -1378,17 +1378,17 @@
         <v>0</v>
       </c>
       <c r="J13" s="8">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="2"/>
       <c r="M13" s="19">
         <f t="shared" si="3"/>
-        <v>750</v>
+        <v>4050</v>
       </c>
       <c r="N13" s="20">
         <f t="shared" si="2"/>
-        <v>750</v>
+        <v>550</v>
       </c>
     </row>
     <row r="14" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="G14" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="H14" s="6">
         <v>0</v>
@@ -1424,11 +1424,11 @@
       <c r="L14" s="2"/>
       <c r="M14" s="19">
         <f t="shared" si="3"/>
-        <v>950</v>
+        <v>4250</v>
       </c>
       <c r="N14" s="20">
         <f t="shared" si="2"/>
-        <v>950</v>
+        <v>750</v>
       </c>
     </row>
     <row r="15" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="G15" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="H15" s="6">
         <v>0</v>
@@ -1462,11 +1462,11 @@
       <c r="L15" s="2"/>
       <c r="M15" s="19">
         <f t="shared" si="3"/>
-        <v>1150</v>
+        <v>4450</v>
       </c>
       <c r="N15" s="20">
         <f t="shared" si="2"/>
-        <v>1150</v>
+        <v>950</v>
       </c>
     </row>
     <row r="16" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="G16" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="H16" s="6">
         <v>0</v>
@@ -1500,11 +1500,11 @@
       <c r="L16" s="2"/>
       <c r="M16" s="19">
         <f t="shared" si="3"/>
-        <v>1350</v>
+        <v>4650</v>
       </c>
       <c r="N16" s="20">
         <f t="shared" si="2"/>
-        <v>1350</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="17" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="G17" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="H17" s="6">
         <v>0</v>
@@ -1538,11 +1538,11 @@
       <c r="L17" s="2"/>
       <c r="M17" s="19">
         <f t="shared" si="3"/>
-        <v>1550</v>
+        <v>4850</v>
       </c>
       <c r="N17" s="20">
         <f t="shared" si="2"/>
-        <v>1550</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="18" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="G18" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="H18" s="6">
         <v>0</v>
@@ -1576,11 +1576,11 @@
       <c r="L18" s="2"/>
       <c r="M18" s="19">
         <f t="shared" si="3"/>
-        <v>1750</v>
+        <v>5050</v>
       </c>
       <c r="N18" s="20">
         <f t="shared" si="2"/>
-        <v>1750</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="19" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="G19" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="H19" s="6">
         <v>0</v>
@@ -1614,11 +1614,11 @@
       <c r="L19" s="2"/>
       <c r="M19" s="19">
         <f t="shared" si="3"/>
-        <v>1950</v>
+        <v>5250</v>
       </c>
       <c r="N19" s="20">
         <f t="shared" si="2"/>
-        <v>1950</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="20" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1707,20 +1707,20 @@
     </row>
     <row r="27" spans="3:14" ht="19.5" x14ac:dyDescent="0.3">
       <c r="D27" s="28" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
     </row>
     <row r="28" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D28" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.25">
@@ -1760,7 +1760,7 @@
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D36" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E36" s="16"/>
       <c r="F36" s="17">

--- a/Documents/DebtPlan11_05_20.xlsx
+++ b/Documents/DebtPlan11_05_20.xlsx
@@ -1,30 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CodeBase\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeBase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB71ACA-3AFF-4D8A-9B1B-B43B01C04089}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E9E86E-D10E-4E6E-B9D7-997F3A555BC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PrimarySheet" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -93,13 +87,13 @@
     <t>3rd Paycheck</t>
   </si>
   <si>
-    <t>Sick</t>
-  </si>
-  <si>
     <t>Taxes</t>
   </si>
   <si>
-    <t>Cards</t>
+    <t>Tuition + Paycheck</t>
+  </si>
+  <si>
+    <t>Sick + Paycheck</t>
   </si>
 </sst>
 </file>
@@ -995,7 +989,7 @@
   <dimension ref="C1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,7 +1090,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="7">
-        <v>1350</v>
+        <v>1400</v>
       </c>
       <c r="G6" s="7">
         <v>3500</v>
@@ -1126,14 +1120,14 @@
         <v>44155</v>
       </c>
       <c r="D7" s="18">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7">
         <f t="shared" ref="F7:F19" si="0">F6-I7</f>
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" ref="G7:G19" si="1">G6-J7</f>
@@ -1152,11 +1146,11 @@
       <c r="L7" s="2"/>
       <c r="M7" s="19">
         <f>D7+H7-I7-J7-K7+M6</f>
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N7" s="20">
         <f>M7-F7-G7</f>
-        <v>-4650</v>
+        <v>-4500</v>
       </c>
     </row>
     <row r="8" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1164,14 +1158,14 @@
         <v>44169</v>
       </c>
       <c r="D8" s="18">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7">
         <f t="shared" si="0"/>
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="G8" s="7">
         <f t="shared" si="1"/>
@@ -1190,11 +1184,11 @@
       <c r="L8" s="2"/>
       <c r="M8" s="19">
         <f>D8+H8-I8-J8-K8+M7</f>
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="N8" s="20">
         <f t="shared" ref="N8:N19" si="2">M8-F8-G8</f>
-        <v>-3650</v>
+        <v>-4500</v>
       </c>
     </row>
     <row r="9" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1202,14 +1196,14 @@
         <v>44183</v>
       </c>
       <c r="D9" s="18">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7">
         <f t="shared" si="0"/>
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" si="1"/>
@@ -1232,11 +1226,11 @@
       </c>
       <c r="M9" s="19">
         <f t="shared" ref="M9:M19" si="3">D9+H9-I9-J9-K9+M8</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N9" s="20">
         <f t="shared" si="2"/>
-        <v>-4250</v>
+        <v>-4500</v>
       </c>
     </row>
     <row r="10" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1251,17 +1245,17 @@
       </c>
       <c r="F10" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="1"/>
         <v>3500</v>
       </c>
       <c r="H10" s="6">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I10" s="8">
-        <v>950</v>
+        <v>0</v>
       </c>
       <c r="J10" s="8">
         <v>0</v>
@@ -1270,11 +1264,11 @@
       <c r="L10" s="2"/>
       <c r="M10" s="19">
         <f t="shared" si="3"/>
-        <v>-50</v>
+        <v>900</v>
       </c>
       <c r="N10" s="20">
         <f t="shared" si="2"/>
-        <v>-3550</v>
+        <v>-3600</v>
       </c>
     </row>
     <row r="11" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1282,10 +1276,10 @@
         <v>44211</v>
       </c>
       <c r="D11" s="18">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" si="0"/>
@@ -1299,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J11" s="8">
         <v>0</v>
@@ -1308,11 +1302,11 @@
       <c r="L11" s="2"/>
       <c r="M11" s="19">
         <f t="shared" si="3"/>
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="N11" s="20">
         <f t="shared" si="2"/>
-        <v>-3050</v>
+        <v>-2800</v>
       </c>
     </row>
     <row r="12" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1346,11 +1340,11 @@
       <c r="L12" s="2"/>
       <c r="M12" s="19">
         <f t="shared" si="3"/>
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="N12" s="20">
         <f t="shared" si="2"/>
-        <v>-2850</v>
+        <v>-2600</v>
       </c>
     </row>
     <row r="13" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1361,7 +1355,7 @@
         <v>3400</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
@@ -1384,11 +1378,11 @@
       <c r="L13" s="2"/>
       <c r="M13" s="19">
         <f t="shared" si="3"/>
-        <v>4050</v>
+        <v>4300</v>
       </c>
       <c r="N13" s="20">
         <f t="shared" si="2"/>
-        <v>550</v>
+        <v>800</v>
       </c>
     </row>
     <row r="14" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1407,16 +1401,16 @@
       </c>
       <c r="G14" s="7">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8">
         <v>3500</v>
-      </c>
-      <c r="H14" s="6">
-        <v>0</v>
-      </c>
-      <c r="I14" s="8">
-        <v>0</v>
-      </c>
-      <c r="J14" s="8">
-        <v>0</v>
       </c>
       <c r="K14" s="8">
         <v>0</v>
@@ -1424,11 +1418,11 @@
       <c r="L14" s="2"/>
       <c r="M14" s="19">
         <f t="shared" si="3"/>
-        <v>4250</v>
+        <v>1000</v>
       </c>
       <c r="N14" s="20">
         <f t="shared" si="2"/>
-        <v>750</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1447,7 +1441,7 @@
       </c>
       <c r="G15" s="7">
         <f t="shared" si="1"/>
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="H15" s="6">
         <v>0</v>
@@ -1462,11 +1456,11 @@
       <c r="L15" s="2"/>
       <c r="M15" s="19">
         <f t="shared" si="3"/>
-        <v>4450</v>
+        <v>1200</v>
       </c>
       <c r="N15" s="20">
         <f t="shared" si="2"/>
-        <v>950</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="16" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1485,7 +1479,7 @@
       </c>
       <c r="G16" s="7">
         <f t="shared" si="1"/>
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="H16" s="6">
         <v>0</v>
@@ -1500,11 +1494,11 @@
       <c r="L16" s="2"/>
       <c r="M16" s="19">
         <f t="shared" si="3"/>
-        <v>4650</v>
+        <v>1400</v>
       </c>
       <c r="N16" s="20">
         <f t="shared" si="2"/>
-        <v>1150</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="17" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1523,7 +1517,7 @@
       </c>
       <c r="G17" s="7">
         <f t="shared" si="1"/>
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="H17" s="6">
         <v>0</v>
@@ -1538,11 +1532,11 @@
       <c r="L17" s="2"/>
       <c r="M17" s="19">
         <f t="shared" si="3"/>
-        <v>4850</v>
+        <v>1600</v>
       </c>
       <c r="N17" s="20">
         <f t="shared" si="2"/>
-        <v>1350</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="18" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1561,7 +1555,7 @@
       </c>
       <c r="G18" s="7">
         <f t="shared" si="1"/>
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="H18" s="6">
         <v>0</v>
@@ -1576,11 +1570,11 @@
       <c r="L18" s="2"/>
       <c r="M18" s="19">
         <f t="shared" si="3"/>
-        <v>5050</v>
+        <v>1800</v>
       </c>
       <c r="N18" s="20">
         <f t="shared" si="2"/>
-        <v>1550</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="19" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1599,7 +1593,7 @@
       </c>
       <c r="G19" s="7">
         <f t="shared" si="1"/>
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="H19" s="6">
         <v>0</v>
@@ -1614,11 +1608,11 @@
       <c r="L19" s="2"/>
       <c r="M19" s="19">
         <f t="shared" si="3"/>
-        <v>5250</v>
+        <v>2000</v>
       </c>
       <c r="N19" s="20">
         <f t="shared" si="2"/>
-        <v>1750</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="20" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">

--- a/Documents/DebtPlan11_05_20.xlsx
+++ b/Documents/DebtPlan11_05_20.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeBase\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CodeBase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E9E86E-D10E-4E6E-B9D7-997F3A555BC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A269237-3CC6-4FDB-845F-2E9537D15811}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PrimarySheet" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Debt Plan</t>
   </si>
@@ -51,9 +57,6 @@
     <t xml:space="preserve">Expense Type </t>
   </si>
   <si>
-    <t>Tuition</t>
-  </si>
-  <si>
     <t>Savings Balance</t>
   </si>
   <si>
@@ -84,16 +87,31 @@
     <t>EstDate</t>
   </si>
   <si>
-    <t>3rd Paycheck</t>
-  </si>
-  <si>
-    <t>Taxes</t>
-  </si>
-  <si>
-    <t>Tuition + Paycheck</t>
-  </si>
-  <si>
-    <t>Sick + Paycheck</t>
+    <t>Tuition+3rd+Dec$400</t>
+  </si>
+  <si>
+    <t>Paycheck+SickPayout</t>
+  </si>
+  <si>
+    <t>Paycheck+CVSBonus</t>
+  </si>
+  <si>
+    <t>Paycheck + Taxes</t>
+  </si>
+  <si>
+    <t>Paycheck + Stimulus</t>
+  </si>
+  <si>
+    <t>Paycheck+DebtForgiveness</t>
+  </si>
+  <si>
+    <t>07/02/20201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3rd Paycheck </t>
+  </si>
+  <si>
+    <t>Reclaim Cards</t>
   </si>
 </sst>
 </file>
@@ -989,15 +1007,15 @@
   <dimension ref="C1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="1.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
@@ -1049,7 +1067,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>3</v>
@@ -1061,10 +1079,10 @@
         <v>5</v>
       </c>
       <c r="I5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>6</v>
@@ -1073,24 +1091,24 @@
         <v>7</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
-        <v>44141</v>
+        <v>44183</v>
       </c>
       <c r="D6" s="6">
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="7">
-        <v>1400</v>
+        <v>2400</v>
       </c>
       <c r="G6" s="7">
         <v>3500</v>
@@ -1104,11 +1122,10 @@
       <c r="J6" s="8">
         <v>0</v>
       </c>
-      <c r="K6" s="8">
-        <v>0</v>
-      </c>
+      <c r="K6" s="8"/>
       <c r="L6" s="2"/>
       <c r="M6" s="4">
+        <f>D6+H6-I6-J6-K6</f>
         <v>0</v>
       </c>
       <c r="N6" s="3">
@@ -1117,27 +1134,27 @@
     </row>
     <row r="7" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
-        <v>44155</v>
+        <v>44197</v>
       </c>
       <c r="D7" s="18">
-        <v>400</v>
+        <v>2100</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F7" s="7">
         <f t="shared" ref="F7:F19" si="0">F6-I7</f>
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" ref="G7:G19" si="1">G6-J7</f>
         <v>3500</v>
       </c>
       <c r="H7" s="6">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I7" s="8">
-        <v>400</v>
+        <v>2300</v>
       </c>
       <c r="J7" s="8">
         <v>0</v>
@@ -1150,22 +1167,22 @@
       </c>
       <c r="N7" s="20">
         <f>M7-F7-G7</f>
-        <v>-4500</v>
+        <v>-3600</v>
       </c>
     </row>
     <row r="8" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
-        <v>44169</v>
+        <v>44211</v>
       </c>
       <c r="D8" s="18">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F8" s="7">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G8" s="7">
         <f t="shared" si="1"/>
@@ -1175,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J8" s="8">
         <v>0</v>
@@ -1184,26 +1201,26 @@
       <c r="L8" s="2"/>
       <c r="M8" s="19">
         <f>D8+H8-I8-J8-K8+M7</f>
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="N8" s="20">
         <f t="shared" ref="N8:N19" si="2">M8-F8-G8</f>
-        <v>-4500</v>
+        <v>-2800</v>
       </c>
     </row>
     <row r="9" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
-        <v>44183</v>
+        <v>44225</v>
       </c>
       <c r="D9" s="18">
-        <v>1400</v>
+        <v>450</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="7">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" si="1"/>
@@ -1218,62 +1235,58 @@
       <c r="J9" s="8">
         <v>0</v>
       </c>
-      <c r="K9" s="8">
-        <v>1400</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="2"/>
       <c r="M9" s="19">
         <f t="shared" ref="M9:M19" si="3">D9+H9-I9-J9-K9+M8</f>
-        <v>0</v>
+        <v>1150</v>
       </c>
       <c r="N9" s="20">
         <f t="shared" si="2"/>
-        <v>-4500</v>
+        <v>-2350</v>
       </c>
     </row>
     <row r="10" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
-        <v>44197</v>
+        <v>44239</v>
       </c>
       <c r="D10" s="18">
-        <v>700</v>
+        <v>3600</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F10" s="7">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8">
         <v>3500</v>
-      </c>
-      <c r="H10" s="6">
-        <v>200</v>
-      </c>
-      <c r="I10" s="8">
-        <v>0</v>
-      </c>
-      <c r="J10" s="8">
-        <v>0</v>
       </c>
       <c r="K10" s="21"/>
       <c r="L10" s="2"/>
       <c r="M10" s="19">
         <f t="shared" si="3"/>
-        <v>900</v>
+        <v>1250</v>
       </c>
       <c r="N10" s="20">
         <f t="shared" si="2"/>
-        <v>-3600</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="11" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
-        <v>44211</v>
+        <v>44253</v>
       </c>
       <c r="D11" s="18">
         <v>800</v>
@@ -1287,37 +1300,41 @@
       </c>
       <c r="G11" s="7">
         <f t="shared" si="1"/>
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="H11" s="6">
         <v>0</v>
       </c>
       <c r="I11" s="8">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="8">
         <v>0</v>
       </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="2"/>
+      <c r="K11" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="M11" s="19">
         <f t="shared" si="3"/>
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="N11" s="20">
         <f t="shared" si="2"/>
-        <v>-2800</v>
+        <v>550</v>
       </c>
     </row>
     <row r="12" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
-        <v>44225</v>
+        <v>44267</v>
       </c>
       <c r="D12" s="18">
         <v>200</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" s="7">
         <f t="shared" si="0"/>
@@ -1325,7 +1342,7 @@
       </c>
       <c r="G12" s="7">
         <f t="shared" si="1"/>
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="H12" s="6">
         <v>0</v>
@@ -1340,22 +1357,22 @@
       <c r="L12" s="2"/>
       <c r="M12" s="19">
         <f t="shared" si="3"/>
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="N12" s="20">
         <f t="shared" si="2"/>
-        <v>-2600</v>
+        <v>750</v>
       </c>
     </row>
     <row r="13" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
-        <v>44239</v>
+        <v>44281</v>
       </c>
       <c r="D13" s="18">
-        <v>3400</v>
+        <v>200</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
@@ -1363,7 +1380,7 @@
       </c>
       <c r="G13" s="7">
         <f t="shared" si="1"/>
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="H13" s="6">
         <v>0</v>
@@ -1378,22 +1395,22 @@
       <c r="L13" s="2"/>
       <c r="M13" s="19">
         <f t="shared" si="3"/>
-        <v>4300</v>
+        <v>950</v>
       </c>
       <c r="N13" s="20">
         <f t="shared" si="2"/>
-        <v>800</v>
+        <v>950</v>
       </c>
     </row>
     <row r="14" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C14" s="1">
-        <v>44253</v>
+        <v>44295</v>
       </c>
       <c r="D14" s="18">
         <v>200</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" s="7">
         <f t="shared" si="0"/>
@@ -1410,30 +1427,28 @@
         <v>0</v>
       </c>
       <c r="J14" s="8">
-        <v>3500</v>
-      </c>
-      <c r="K14" s="8">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K14" s="8"/>
       <c r="L14" s="2"/>
       <c r="M14" s="19">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>1150</v>
       </c>
       <c r="N14" s="20">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="15" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
-        <v>44267</v>
+        <v>44309</v>
       </c>
       <c r="D15" s="18">
         <v>200</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" s="7">
         <f t="shared" si="0"/>
@@ -1456,22 +1471,22 @@
       <c r="L15" s="2"/>
       <c r="M15" s="19">
         <f t="shared" si="3"/>
-        <v>1200</v>
+        <v>1350</v>
       </c>
       <c r="N15" s="20">
         <f t="shared" si="2"/>
-        <v>1200</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="16" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C16" s="1">
-        <v>44281</v>
+        <v>44323</v>
       </c>
       <c r="D16" s="18">
         <v>200</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" s="7">
         <f t="shared" si="0"/>
@@ -1494,22 +1509,22 @@
       <c r="L16" s="2"/>
       <c r="M16" s="19">
         <f t="shared" si="3"/>
-        <v>1400</v>
+        <v>1550</v>
       </c>
       <c r="N16" s="20">
         <f t="shared" si="2"/>
-        <v>1400</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="17" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C17" s="1">
-        <v>44295</v>
+        <v>44337</v>
       </c>
       <c r="D17" s="18">
         <v>200</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" s="7">
         <f t="shared" si="0"/>
@@ -1532,22 +1547,22 @@
       <c r="L17" s="2"/>
       <c r="M17" s="19">
         <f t="shared" si="3"/>
-        <v>1600</v>
+        <v>1750</v>
       </c>
       <c r="N17" s="20">
         <f t="shared" si="2"/>
-        <v>1600</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="18" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C18" s="1">
-        <v>44309</v>
+        <v>44351</v>
       </c>
       <c r="D18" s="18">
         <v>200</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F18" s="7">
         <f t="shared" si="0"/>
@@ -1570,22 +1585,22 @@
       <c r="L18" s="2"/>
       <c r="M18" s="19">
         <f t="shared" si="3"/>
-        <v>1800</v>
+        <v>1950</v>
       </c>
       <c r="N18" s="20">
         <f t="shared" si="2"/>
-        <v>1800</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="19" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C19" s="1">
-        <v>44323</v>
+        <v>44365</v>
       </c>
       <c r="D19" s="18">
         <v>200</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" s="7">
         <f t="shared" si="0"/>
@@ -1608,26 +1623,50 @@
       <c r="L19" s="2"/>
       <c r="M19" s="19">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>2150</v>
       </c>
       <c r="N19" s="20">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="20" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="1"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
+      <c r="C20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="6">
+        <v>700</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" ref="F20" si="4">F19-I20</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" ref="G20" si="5">G19-J20</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0</v>
+      </c>
+      <c r="I20" s="8">
+        <v>0</v>
+      </c>
+      <c r="J20" s="8">
+        <v>0</v>
+      </c>
       <c r="K20" s="8"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="3"/>
+      <c r="M20" s="19">
+        <f t="shared" ref="M20" si="6">D20+H20-I20-J20-K20+M19</f>
+        <v>2850</v>
+      </c>
+      <c r="N20" s="20">
+        <f t="shared" ref="N20" si="7">M20-F20-G20</f>
+        <v>2850</v>
+      </c>
     </row>
     <row r="21" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
@@ -1701,20 +1740,20 @@
     </row>
     <row r="27" spans="3:14" ht="19.5" x14ac:dyDescent="0.3">
       <c r="D27" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
     </row>
     <row r="28" spans="3:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D28" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.25">
@@ -1754,7 +1793,7 @@
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D36" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E36" s="16"/>
       <c r="F36" s="17">

--- a/Documents/DebtPlan11_05_20.xlsx
+++ b/Documents/DebtPlan11_05_20.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CodeBase\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeBase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A269237-3CC6-4FDB-845F-2E9537D15811}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECB965B-30B6-4793-80C3-0A892DEA54A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PrimarySheet" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>Debt Plan</t>
   </si>
@@ -99,9 +93,6 @@
     <t>Paycheck + Taxes</t>
   </si>
   <si>
-    <t>Paycheck + Stimulus</t>
-  </si>
-  <si>
     <t>Paycheck+DebtForgiveness</t>
   </si>
   <si>
@@ -111,7 +102,22 @@
     <t xml:space="preserve">3rd Paycheck </t>
   </si>
   <si>
-    <t>Reclaim Cards</t>
+    <t>Curtains + Door Trim</t>
+  </si>
+  <si>
+    <t>Office Furniture</t>
+  </si>
+  <si>
+    <t>Paycheck+ 3rd Stim</t>
+  </si>
+  <si>
+    <t>Replace MtG UW Cards</t>
+  </si>
+  <si>
+    <t>New PC</t>
+  </si>
+  <si>
+    <t>UW Cards</t>
   </si>
 </sst>
 </file>
@@ -500,22 +506,25 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
+        <left/>
+        <right style="thin">
           <color indexed="64"/>
-        </left>
-        <right/>
+        </right>
         <top style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -563,15 +572,16 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
+        <left style="thin">
           <color indexed="64"/>
-        </right>
+        </left>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -596,21 +606,17 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
         <top style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -730,9 +736,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table32342" displayName="Table32342" ref="D28:F36" totalsRowCount="1" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6" headerRowCellStyle="Heading 1">
   <autoFilter ref="D28:F35" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="EstDate" totalsRowLabel="Total" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="60% - Accent1"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Expense" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="60% - Accent1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Estimated Cost" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="60% - Accent1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="EstDate" totalsRowLabel="Total" dataDxfId="5" totalsRowDxfId="2" dataCellStyle="60% - Accent1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Expense" dataDxfId="4" totalsRowDxfId="1" dataCellStyle="60% - Accent1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Estimated Cost" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="0" dataCellStyle="60% - Accent1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1007,7 +1013,7 @@
   <dimension ref="C1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,7 +1028,7 @@
     <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.5703125" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1108,7 +1114,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="7">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="G6" s="7">
         <v>3500</v>
@@ -1143,11 +1149,10 @@
         <v>18</v>
       </c>
       <c r="F7" s="7">
-        <f t="shared" ref="F7:F19" si="0">F6-I7</f>
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G7" s="7">
-        <f t="shared" ref="G7:G19" si="1">G6-J7</f>
+        <f t="shared" ref="G7:G19" si="0">G6-J7</f>
         <v>3500</v>
       </c>
       <c r="H7" s="6">
@@ -1167,7 +1172,7 @@
       </c>
       <c r="N7" s="20">
         <f>M7-F7-G7</f>
-        <v>-3600</v>
+        <v>-3800</v>
       </c>
     </row>
     <row r="8" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1181,31 +1186,35 @@
         <v>19</v>
       </c>
       <c r="F8" s="7">
+        <f t="shared" ref="F8:F19" si="1">F7-I8</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="7">
-        <f t="shared" si="1"/>
         <v>3500</v>
       </c>
       <c r="H8" s="6">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I8" s="8">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J8" s="8">
         <v>0</v>
       </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="2"/>
+      <c r="K8" s="8">
+        <v>150</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="M8" s="19">
         <f>D8+H8-I8-J8-K8+M7</f>
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="N8" s="20">
         <f t="shared" ref="N8:N19" si="2">M8-F8-G8</f>
-        <v>-2800</v>
+        <v>-2950</v>
       </c>
     </row>
     <row r="9" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1219,11 +1228,11 @@
         <v>20</v>
       </c>
       <c r="F9" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
-        <f t="shared" si="1"/>
         <v>3500</v>
       </c>
       <c r="H9" s="6">
@@ -1235,15 +1244,19 @@
       <c r="J9" s="8">
         <v>0</v>
       </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="2"/>
+      <c r="K9" s="8">
+        <v>1000</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="M9" s="19">
         <f t="shared" ref="M9:M19" si="3">D9+H9-I9-J9-K9+M8</f>
-        <v>1150</v>
+        <v>0</v>
       </c>
       <c r="N9" s="20">
         <f t="shared" si="2"/>
-        <v>-2350</v>
+        <v>-3500</v>
       </c>
     </row>
     <row r="10" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1257,12 +1270,12 @@
         <v>21</v>
       </c>
       <c r="F10" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="H10" s="6">
         <v>0</v>
@@ -1271,17 +1284,21 @@
         <v>0</v>
       </c>
       <c r="J10" s="8">
-        <v>3500</v>
-      </c>
-      <c r="K10" s="21"/>
-      <c r="L10" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="21">
+        <v>2000</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="M10" s="19">
         <f t="shared" si="3"/>
-        <v>1250</v>
+        <v>1600</v>
       </c>
       <c r="N10" s="20">
         <f t="shared" si="2"/>
-        <v>1250</v>
+        <v>-1900</v>
       </c>
     </row>
     <row r="11" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1289,18 +1306,18 @@
         <v>44253</v>
       </c>
       <c r="D11" s="18">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F11" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="H11" s="6">
         <v>0</v>
@@ -1312,18 +1329,18 @@
         <v>0</v>
       </c>
       <c r="K11" s="8">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M11" s="19">
         <f t="shared" si="3"/>
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="N11" s="20">
         <f t="shared" si="2"/>
-        <v>550</v>
+        <v>-3000</v>
       </c>
     </row>
     <row r="12" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1331,18 +1348,18 @@
         <v>44267</v>
       </c>
       <c r="D12" s="18">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F12" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="H12" s="6">
         <v>0</v>
@@ -1357,11 +1374,11 @@
       <c r="L12" s="2"/>
       <c r="M12" s="19">
         <f t="shared" si="3"/>
-        <v>750</v>
+        <v>1900</v>
       </c>
       <c r="N12" s="20">
         <f t="shared" si="2"/>
-        <v>750</v>
+        <v>-1600</v>
       </c>
     </row>
     <row r="13" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1369,19 +1386,19 @@
         <v>44281</v>
       </c>
       <c r="D13" s="18">
-        <v>200</v>
+        <v>3700</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="H13" s="6">
         <v>0</v>
       </c>
@@ -1389,17 +1406,17 @@
         <v>0</v>
       </c>
       <c r="J13" s="8">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="2"/>
       <c r="M13" s="19">
         <f t="shared" si="3"/>
-        <v>950</v>
+        <v>2100</v>
       </c>
       <c r="N13" s="20">
         <f t="shared" si="2"/>
-        <v>950</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="14" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1413,11 +1430,11 @@
         <v>10</v>
       </c>
       <c r="F14" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="7">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H14" s="6">
@@ -1433,11 +1450,11 @@
       <c r="L14" s="2"/>
       <c r="M14" s="19">
         <f t="shared" si="3"/>
-        <v>1150</v>
+        <v>2300</v>
       </c>
       <c r="N14" s="20">
         <f t="shared" si="2"/>
-        <v>1150</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="15" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1451,11 +1468,11 @@
         <v>10</v>
       </c>
       <c r="F15" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="7">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H15" s="6">
@@ -1471,11 +1488,11 @@
       <c r="L15" s="2"/>
       <c r="M15" s="19">
         <f t="shared" si="3"/>
-        <v>1350</v>
+        <v>2500</v>
       </c>
       <c r="N15" s="20">
         <f t="shared" si="2"/>
-        <v>1350</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="16" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1489,11 +1506,11 @@
         <v>10</v>
       </c>
       <c r="F16" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="7">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H16" s="6">
@@ -1509,11 +1526,11 @@
       <c r="L16" s="2"/>
       <c r="M16" s="19">
         <f t="shared" si="3"/>
-        <v>1550</v>
+        <v>2700</v>
       </c>
       <c r="N16" s="20">
         <f t="shared" si="2"/>
-        <v>1550</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="17" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1527,11 +1544,11 @@
         <v>10</v>
       </c>
       <c r="F17" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="7">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H17" s="6">
@@ -1547,11 +1564,11 @@
       <c r="L17" s="2"/>
       <c r="M17" s="19">
         <f t="shared" si="3"/>
-        <v>1750</v>
+        <v>2900</v>
       </c>
       <c r="N17" s="20">
         <f t="shared" si="2"/>
-        <v>1750</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="18" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1565,11 +1582,11 @@
         <v>10</v>
       </c>
       <c r="F18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="7">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H18" s="6">
@@ -1585,11 +1602,11 @@
       <c r="L18" s="2"/>
       <c r="M18" s="19">
         <f t="shared" si="3"/>
-        <v>1950</v>
+        <v>3100</v>
       </c>
       <c r="N18" s="20">
         <f t="shared" si="2"/>
-        <v>1950</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="19" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1603,11 +1620,11 @@
         <v>10</v>
       </c>
       <c r="F19" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="7">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H19" s="6">
@@ -1623,22 +1640,22 @@
       <c r="L19" s="2"/>
       <c r="M19" s="19">
         <f t="shared" si="3"/>
-        <v>2150</v>
+        <v>3300</v>
       </c>
       <c r="N19" s="20">
         <f t="shared" si="2"/>
-        <v>2150</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="20" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" s="6">
         <v>700</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F20" s="7">
         <f t="shared" ref="F20" si="4">F19-I20</f>
@@ -1661,11 +1678,11 @@
       <c r="L20" s="2"/>
       <c r="M20" s="19">
         <f t="shared" ref="M20" si="6">D20+H20-I20-J20-K20+M19</f>
-        <v>2850</v>
+        <v>4000</v>
       </c>
       <c r="N20" s="20">
         <f t="shared" ref="N20" si="7">M20-F20-G20</f>
-        <v>2850</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="21" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1758,18 +1775,30 @@
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D29" s="10"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="12"/>
+      <c r="E29" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="12">
+        <v>1000</v>
+      </c>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="12"/>
+      <c r="E30" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="12">
+        <v>1300</v>
+      </c>
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D31" s="10"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="12"/>
+      <c r="E31" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="12">
+        <v>2000</v>
+      </c>
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D32" s="10"/>
@@ -1798,7 +1827,7 @@
       <c r="E36" s="16"/>
       <c r="F36" s="17">
         <f>SUBTOTAL(109,Table32342[Estimated Cost])</f>
-        <v>0</v>
+        <v>4300</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/DebtPlan11_05_20.xlsx
+++ b/Documents/DebtPlan11_05_20.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeBase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECB965B-30B6-4793-80C3-0A892DEA54A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A424517-8665-4902-87A2-E9A2F555F488}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PrimarySheet" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Debt Plan</t>
   </si>
@@ -81,12 +90,6 @@
     <t>EstDate</t>
   </si>
   <si>
-    <t>Tuition+3rd+Dec$400</t>
-  </si>
-  <si>
-    <t>Paycheck+SickPayout</t>
-  </si>
-  <si>
     <t>Paycheck+CVSBonus</t>
   </si>
   <si>
@@ -96,28 +99,13 @@
     <t>Paycheck+DebtForgiveness</t>
   </si>
   <si>
-    <t>07/02/20201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3rd Paycheck </t>
-  </si>
-  <si>
-    <t>Curtains + Door Trim</t>
-  </si>
-  <si>
-    <t>Office Furniture</t>
-  </si>
-  <si>
-    <t>Paycheck+ 3rd Stim</t>
-  </si>
-  <si>
-    <t>Replace MtG UW Cards</t>
-  </si>
-  <si>
-    <t>New PC</t>
-  </si>
-  <si>
-    <t>UW Cards</t>
+    <t>Pay+Stim+RHMoney+Bonus</t>
+  </si>
+  <si>
+    <t>Paycheck + GME Stocks</t>
+  </si>
+  <si>
+    <t>3rd Paycheck</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1001,7 @@
   <dimension ref="C1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,7 +1009,7 @@
     <col min="1" max="2" width="1.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
@@ -1105,16 +1093,16 @@
     </row>
     <row r="6" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
-        <v>44183</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0</v>
+        <v>44267</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1800</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="7">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="G6" s="7">
         <v>3500</v>
@@ -1132,7 +1120,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="4">
         <f>D6+H6-I6-J6-K6</f>
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="N6" s="3">
         <v>0</v>
@@ -1140,26 +1128,27 @@
     </row>
     <row r="7" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
-        <v>44197</v>
+        <v>44281</v>
       </c>
       <c r="D7" s="18">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F7" s="7">
-        <v>300</v>
+        <f>F6-I7</f>
+        <v>0</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" ref="G7:G19" si="0">G6-J7</f>
         <v>3500</v>
       </c>
       <c r="H7" s="6">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I7" s="8">
-        <v>2300</v>
+        <v>4000</v>
       </c>
       <c r="J7" s="8">
         <v>0</v>
@@ -1172,18 +1161,18 @@
       </c>
       <c r="N7" s="20">
         <f>M7-F7-G7</f>
-        <v>-3800</v>
+        <v>-3500</v>
       </c>
     </row>
     <row r="8" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
-        <v>44211</v>
+        <v>44295</v>
       </c>
       <c r="D8" s="18">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F8" s="7">
         <f t="shared" ref="F8:F19" si="1">F7-I8</f>
@@ -1194,38 +1183,36 @@
         <v>3500</v>
       </c>
       <c r="H8" s="6">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I8" s="8">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J8" s="8">
         <v>0</v>
       </c>
       <c r="K8" s="8">
-        <v>150</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L8" s="2"/>
       <c r="M8" s="19">
         <f>D8+H8-I8-J8-K8+M7</f>
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="N8" s="20">
         <f t="shared" ref="N8:N19" si="2">M8-F8-G8</f>
-        <v>-2950</v>
+        <v>-2500</v>
       </c>
     </row>
     <row r="9" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
-        <v>44225</v>
+        <v>44309</v>
       </c>
       <c r="D9" s="18">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F9" s="7">
         <f t="shared" si="1"/>
@@ -1245,29 +1232,27 @@
         <v>0</v>
       </c>
       <c r="K9" s="8">
-        <v>1000</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L9" s="2"/>
       <c r="M9" s="19">
         <f t="shared" ref="M9:M19" si="3">D9+H9-I9-J9-K9+M8</f>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="N9" s="20">
         <f t="shared" si="2"/>
-        <v>-3500</v>
+        <v>-2300</v>
       </c>
     </row>
     <row r="10" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
-        <v>44239</v>
+        <v>44323</v>
       </c>
       <c r="D10" s="18">
-        <v>3600</v>
+        <v>200</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F10" s="7">
         <f t="shared" si="1"/>
@@ -1287,23 +1272,21 @@
         <v>0</v>
       </c>
       <c r="K10" s="21">
-        <v>2000</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L10" s="2"/>
       <c r="M10" s="19">
         <f t="shared" si="3"/>
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="N10" s="20">
         <f t="shared" si="2"/>
-        <v>-1900</v>
+        <v>-2100</v>
       </c>
     </row>
     <row r="11" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
-        <v>44253</v>
+        <v>44337</v>
       </c>
       <c r="D11" s="18">
         <v>200</v>
@@ -1329,29 +1312,27 @@
         <v>0</v>
       </c>
       <c r="K11" s="8">
-        <v>1300</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L11" s="2"/>
       <c r="M11" s="19">
         <f t="shared" si="3"/>
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="N11" s="20">
         <f t="shared" si="2"/>
-        <v>-3000</v>
+        <v>-1900</v>
       </c>
     </row>
     <row r="12" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
-        <v>44267</v>
+        <v>44351</v>
       </c>
       <c r="D12" s="18">
-        <v>1400</v>
+        <v>3700</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F12" s="7">
         <f t="shared" si="1"/>
@@ -1359,37 +1340,37 @@
       </c>
       <c r="G12" s="7">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
         <v>3500</v>
-      </c>
-      <c r="H12" s="6">
-        <v>0</v>
-      </c>
-      <c r="I12" s="8">
-        <v>0</v>
-      </c>
-      <c r="J12" s="8">
-        <v>0</v>
       </c>
       <c r="K12" s="8"/>
       <c r="L12" s="2"/>
       <c r="M12" s="19">
         <f t="shared" si="3"/>
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="N12" s="20">
         <f t="shared" si="2"/>
-        <v>-1600</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="13" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
-        <v>44281</v>
+        <v>44365</v>
       </c>
       <c r="D13" s="18">
-        <v>3700</v>
+        <v>200</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F13" s="7">
         <f t="shared" si="1"/>
@@ -1406,28 +1387,28 @@
         <v>0</v>
       </c>
       <c r="J13" s="8">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="2"/>
       <c r="M13" s="19">
         <f t="shared" si="3"/>
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="N13" s="20">
         <f t="shared" si="2"/>
-        <v>2100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="14" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C14" s="1">
-        <v>44295</v>
-      </c>
-      <c r="D14" s="18">
-        <v>200</v>
+        <v>44379</v>
+      </c>
+      <c r="D14" s="6">
+        <v>700</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F14" s="7">
         <f t="shared" si="1"/>
@@ -1450,23 +1431,21 @@
       <c r="L14" s="2"/>
       <c r="M14" s="19">
         <f t="shared" si="3"/>
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="N14" s="20">
         <f t="shared" si="2"/>
-        <v>2300</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="15" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
-        <v>44309</v>
+        <v>44393</v>
       </c>
       <c r="D15" s="18">
         <v>200</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="E15" s="2"/>
       <c r="F15" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1488,23 +1467,21 @@
       <c r="L15" s="2"/>
       <c r="M15" s="19">
         <f t="shared" si="3"/>
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="N15" s="20">
         <f t="shared" si="2"/>
-        <v>2500</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="16" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C16" s="1">
-        <v>44323</v>
+        <v>44407</v>
       </c>
       <c r="D16" s="18">
         <v>200</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="E16" s="2"/>
       <c r="F16" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1526,23 +1503,21 @@
       <c r="L16" s="2"/>
       <c r="M16" s="19">
         <f t="shared" si="3"/>
-        <v>2700</v>
+        <v>3100</v>
       </c>
       <c r="N16" s="20">
         <f t="shared" si="2"/>
-        <v>2700</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="17" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C17" s="1">
-        <v>44337</v>
+        <v>44421</v>
       </c>
       <c r="D17" s="18">
         <v>200</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="E17" s="2"/>
       <c r="F17" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1564,23 +1539,21 @@
       <c r="L17" s="2"/>
       <c r="M17" s="19">
         <f t="shared" si="3"/>
-        <v>2900</v>
+        <v>3300</v>
       </c>
       <c r="N17" s="20">
         <f t="shared" si="2"/>
-        <v>2900</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="18" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C18" s="1">
-        <v>44351</v>
+        <v>44435</v>
       </c>
       <c r="D18" s="18">
         <v>200</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="E18" s="2"/>
       <c r="F18" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1602,23 +1575,21 @@
       <c r="L18" s="2"/>
       <c r="M18" s="19">
         <f t="shared" si="3"/>
-        <v>3100</v>
+        <v>3500</v>
       </c>
       <c r="N18" s="20">
         <f t="shared" si="2"/>
-        <v>3100</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="19" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C19" s="1">
-        <v>44365</v>
+        <v>44449</v>
       </c>
       <c r="D19" s="18">
         <v>200</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="E19" s="2"/>
       <c r="F19" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1640,23 +1611,21 @@
       <c r="L19" s="2"/>
       <c r="M19" s="19">
         <f t="shared" si="3"/>
-        <v>3300</v>
+        <v>3700</v>
       </c>
       <c r="N19" s="20">
         <f t="shared" si="2"/>
-        <v>3300</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="20" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="1" t="s">
-        <v>23</v>
+      <c r="C20" s="1">
+        <v>44463</v>
       </c>
       <c r="D20" s="6">
-        <v>700</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" s="7">
         <f t="shared" ref="F20" si="4">F19-I20</f>
         <v>0</v>
@@ -1678,82 +1647,188 @@
       <c r="L20" s="2"/>
       <c r="M20" s="19">
         <f t="shared" ref="M20" si="6">D20+H20-I20-J20-K20+M19</f>
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="N20" s="20">
         <f t="shared" ref="N20" si="7">M20-F20-G20</f>
-        <v>4000</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="21" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C21" s="1"/>
-      <c r="D21" s="6"/>
+      <c r="C21" s="1">
+        <v>44477</v>
+      </c>
+      <c r="D21" s="6">
+        <v>200</v>
+      </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
+      <c r="F21" s="7">
+        <f t="shared" ref="F21:F25" si="8">F20-I21</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" ref="G21:G25" si="9">G20-J21</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0</v>
+      </c>
+      <c r="J21" s="8">
+        <v>0</v>
+      </c>
       <c r="K21" s="8"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="3"/>
+      <c r="M21" s="19">
+        <f t="shared" ref="M21:M25" si="10">D21+H21-I21-J21-K21+M20</f>
+        <v>4100</v>
+      </c>
+      <c r="N21" s="20">
+        <f t="shared" ref="N21:N25" si="11">M21-F21-G21</f>
+        <v>4100</v>
+      </c>
     </row>
     <row r="22" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="1"/>
-      <c r="D22" s="6"/>
+      <c r="C22" s="1">
+        <v>44491</v>
+      </c>
+      <c r="D22" s="6">
+        <v>200</v>
+      </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
+      <c r="F22" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0</v>
+      </c>
+      <c r="I22" s="8">
+        <v>0</v>
+      </c>
+      <c r="J22" s="8">
+        <v>0</v>
+      </c>
       <c r="K22" s="8"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="3"/>
+      <c r="M22" s="19">
+        <f t="shared" si="10"/>
+        <v>4300</v>
+      </c>
+      <c r="N22" s="20">
+        <f t="shared" si="11"/>
+        <v>4300</v>
+      </c>
     </row>
     <row r="23" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="1"/>
-      <c r="D23" s="6"/>
+      <c r="C23" s="1">
+        <v>44505</v>
+      </c>
+      <c r="D23" s="6">
+        <v>200</v>
+      </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
+      <c r="F23" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
+      <c r="I23" s="8">
+        <v>0</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0</v>
+      </c>
       <c r="K23" s="8"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="3"/>
+      <c r="M23" s="19">
+        <f t="shared" si="10"/>
+        <v>4500</v>
+      </c>
+      <c r="N23" s="20">
+        <f t="shared" si="11"/>
+        <v>4500</v>
+      </c>
     </row>
     <row r="24" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C24" s="1"/>
-      <c r="D24" s="6"/>
+      <c r="C24" s="1">
+        <v>44519</v>
+      </c>
+      <c r="D24" s="6">
+        <v>200</v>
+      </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
+      <c r="F24" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0</v>
+      </c>
+      <c r="I24" s="8">
+        <v>0</v>
+      </c>
+      <c r="J24" s="8">
+        <v>0</v>
+      </c>
       <c r="K24" s="8"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="3"/>
+      <c r="M24" s="19">
+        <f t="shared" si="10"/>
+        <v>4700</v>
+      </c>
+      <c r="N24" s="20">
+        <f t="shared" si="11"/>
+        <v>4700</v>
+      </c>
     </row>
     <row r="25" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
       <c r="D25" s="6"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
+      <c r="F25" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0</v>
+      </c>
+      <c r="I25" s="8">
+        <v>0</v>
+      </c>
+      <c r="J25" s="8">
+        <v>0</v>
+      </c>
       <c r="K25" s="8"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="3"/>
+      <c r="M25" s="19">
+        <f t="shared" si="10"/>
+        <v>4700</v>
+      </c>
+      <c r="N25" s="20">
+        <f t="shared" si="11"/>
+        <v>4700</v>
+      </c>
     </row>
     <row r="27" spans="3:14" ht="19.5" x14ac:dyDescent="0.3">
       <c r="D27" s="28" t="s">
@@ -1775,30 +1850,18 @@
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D29" s="10"/>
-      <c r="E29" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" s="12">
-        <v>1000</v>
-      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="12"/>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D30" s="10"/>
-      <c r="E30" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" s="12">
-        <v>1300</v>
-      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="12"/>
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D31" s="10"/>
-      <c r="E31" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="12">
-        <v>2000</v>
-      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="12"/>
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D32" s="10"/>
@@ -1827,7 +1890,7 @@
       <c r="E36" s="16"/>
       <c r="F36" s="17">
         <f>SUBTOTAL(109,Table32342[Estimated Cost])</f>
-        <v>4300</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/DebtPlan11_05_20.xlsx
+++ b/Documents/DebtPlan11_05_20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeBase\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CodeBase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A424517-8665-4902-87A2-E9A2F555F488}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78F04BC-29F2-494B-9D58-E8632E7A7910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19080" yWindow="-405" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PrimarySheet" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Debt Plan</t>
   </si>
@@ -90,22 +89,22 @@
     <t>EstDate</t>
   </si>
   <si>
-    <t>Paycheck+CVSBonus</t>
-  </si>
-  <si>
-    <t>Paycheck + Taxes</t>
-  </si>
-  <si>
     <t>Paycheck+DebtForgiveness</t>
   </si>
   <si>
-    <t>Pay+Stim+RHMoney+Bonus</t>
-  </si>
-  <si>
-    <t>Paycheck + GME Stocks</t>
-  </si>
-  <si>
     <t>3rd Paycheck</t>
+  </si>
+  <si>
+    <t>Paycheck+GME</t>
+  </si>
+  <si>
+    <t>Ring?</t>
+  </si>
+  <si>
+    <t>Japan Set Aside</t>
+  </si>
+  <si>
+    <t>Wedding?!</t>
   </si>
 </sst>
 </file>
@@ -494,25 +493,22 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
+        <left style="thin">
           <color indexed="64"/>
-        </right>
+        </left>
+        <right/>
         <top style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -560,16 +556,15 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
+        <left/>
+        <right style="thin">
           <color indexed="64"/>
-        </left>
-        <right/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -594,17 +589,21 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
         <top style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -724,9 +723,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table32342" displayName="Table32342" ref="D28:F36" totalsRowCount="1" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6" headerRowCellStyle="Heading 1">
   <autoFilter ref="D28:F35" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="EstDate" totalsRowLabel="Total" dataDxfId="5" totalsRowDxfId="2" dataCellStyle="60% - Accent1"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Expense" dataDxfId="4" totalsRowDxfId="1" dataCellStyle="60% - Accent1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Estimated Cost" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="0" dataCellStyle="60% - Accent1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="EstDate" totalsRowLabel="Total" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="60% - Accent1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Expense" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="60% - Accent1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Estimated Cost" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="60% - Accent1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1001,7 +1000,7 @@
   <dimension ref="C1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1131,14 +1130,14 @@
         <v>44281</v>
       </c>
       <c r="D7" s="18">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F7" s="7">
         <f>F6-I7</f>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" ref="G7:G19" si="0">G6-J7</f>
@@ -1148,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="8">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="J7" s="8">
         <v>0</v>
@@ -1161,7 +1160,7 @@
       </c>
       <c r="N7" s="20">
         <f>M7-F7-G7</f>
-        <v>-3500</v>
+        <v>-4700</v>
       </c>
     </row>
     <row r="8" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1169,14 +1168,14 @@
         <v>44295</v>
       </c>
       <c r="D8" s="18">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F8" s="7">
         <f t="shared" ref="F8:F19" si="1">F7-I8</f>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G8" s="7">
         <f t="shared" si="0"/>
@@ -1197,11 +1196,11 @@
       <c r="L8" s="2"/>
       <c r="M8" s="19">
         <f>D8+H8-I8-J8-K8+M7</f>
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="N8" s="20">
         <f t="shared" ref="N8:N19" si="2">M8-F8-G8</f>
-        <v>-2500</v>
+        <v>-4500</v>
       </c>
     </row>
     <row r="9" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1209,10 +1208,10 @@
         <v>44309</v>
       </c>
       <c r="D9" s="18">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F9" s="7">
         <f t="shared" si="1"/>
@@ -1226,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="8">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="J9" s="8">
         <v>0</v>
@@ -1237,11 +1236,11 @@
       <c r="L9" s="2"/>
       <c r="M9" s="19">
         <f t="shared" ref="M9:M19" si="3">D9+H9-I9-J9-K9+M8</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="N9" s="20">
         <f t="shared" si="2"/>
-        <v>-2300</v>
+        <v>-3500</v>
       </c>
     </row>
     <row r="10" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1252,7 +1251,7 @@
         <v>200</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F10" s="7">
         <f t="shared" si="1"/>
@@ -1271,17 +1270,17 @@
       <c r="J10" s="8">
         <v>0</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="8">
         <v>0</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="19">
         <f t="shared" si="3"/>
-        <v>1400</v>
+        <v>200</v>
       </c>
       <c r="N10" s="20">
         <f t="shared" si="2"/>
-        <v>-2100</v>
+        <v>-3300</v>
       </c>
     </row>
     <row r="11" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1289,7 +1288,7 @@
         <v>44337</v>
       </c>
       <c r="D11" s="18">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>10</v>
@@ -1317,11 +1316,11 @@
       <c r="L11" s="2"/>
       <c r="M11" s="19">
         <f t="shared" si="3"/>
-        <v>1600</v>
+        <v>550</v>
       </c>
       <c r="N11" s="20">
         <f t="shared" si="2"/>
-        <v>-1900</v>
+        <v>-2950</v>
       </c>
     </row>
     <row r="12" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1329,10 +1328,10 @@
         <v>44351</v>
       </c>
       <c r="D12" s="18">
-        <v>3700</v>
+        <v>3850</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F12" s="7">
         <f t="shared" si="1"/>
@@ -1355,11 +1354,11 @@
       <c r="L12" s="2"/>
       <c r="M12" s="19">
         <f t="shared" si="3"/>
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="N12" s="20">
         <f t="shared" si="2"/>
-        <v>1800</v>
+        <v>900</v>
       </c>
     </row>
     <row r="13" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1367,7 +1366,7 @@
         <v>44365</v>
       </c>
       <c r="D13" s="18">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>10</v>
@@ -1393,11 +1392,11 @@
       <c r="L13" s="2"/>
       <c r="M13" s="19">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>1250</v>
       </c>
       <c r="N13" s="20">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="14" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1405,10 +1404,10 @@
         <v>44379</v>
       </c>
       <c r="D14" s="6">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F14" s="7">
         <f t="shared" si="1"/>
@@ -1427,15 +1426,19 @@
       <c r="J14" s="8">
         <v>0</v>
       </c>
-      <c r="K14" s="8"/>
-      <c r="L14" s="2"/>
+      <c r="K14" s="8">
+        <v>1500</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="M14" s="19">
         <f t="shared" si="3"/>
-        <v>2700</v>
+        <v>600</v>
       </c>
       <c r="N14" s="20">
         <f t="shared" si="2"/>
-        <v>2700</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1443,7 +1446,7 @@
         <v>44393</v>
       </c>
       <c r="D15" s="18">
-        <v>200</v>
+        <v>850</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="7">
@@ -1467,11 +1470,11 @@
       <c r="L15" s="2"/>
       <c r="M15" s="19">
         <f t="shared" si="3"/>
-        <v>2900</v>
+        <v>1450</v>
       </c>
       <c r="N15" s="20">
         <f t="shared" si="2"/>
-        <v>2900</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="16" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1479,7 +1482,7 @@
         <v>44407</v>
       </c>
       <c r="D16" s="18">
-        <v>200</v>
+        <v>850</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="7">
@@ -1503,11 +1506,11 @@
       <c r="L16" s="2"/>
       <c r="M16" s="19">
         <f t="shared" si="3"/>
-        <v>3100</v>
+        <v>2300</v>
       </c>
       <c r="N16" s="20">
         <f t="shared" si="2"/>
-        <v>3100</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="17" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1515,7 +1518,7 @@
         <v>44421</v>
       </c>
       <c r="D17" s="18">
-        <v>200</v>
+        <v>850</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="7">
@@ -1539,11 +1542,11 @@
       <c r="L17" s="2"/>
       <c r="M17" s="19">
         <f t="shared" si="3"/>
-        <v>3300</v>
+        <v>3150</v>
       </c>
       <c r="N17" s="20">
         <f t="shared" si="2"/>
-        <v>3300</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="18" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1551,7 +1554,7 @@
         <v>44435</v>
       </c>
       <c r="D18" s="18">
-        <v>200</v>
+        <v>850</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="7">
@@ -1575,11 +1578,11 @@
       <c r="L18" s="2"/>
       <c r="M18" s="19">
         <f t="shared" si="3"/>
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="N18" s="20">
         <f t="shared" si="2"/>
-        <v>3500</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="19" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1587,7 +1590,7 @@
         <v>44449</v>
       </c>
       <c r="D19" s="18">
-        <v>200</v>
+        <v>850</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="7">
@@ -1611,19 +1614,19 @@
       <c r="L19" s="2"/>
       <c r="M19" s="19">
         <f t="shared" si="3"/>
-        <v>3700</v>
+        <v>4850</v>
       </c>
       <c r="N19" s="20">
         <f t="shared" si="2"/>
-        <v>3700</v>
+        <v>4850</v>
       </c>
     </row>
     <row r="20" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C20" s="1">
         <v>44463</v>
       </c>
-      <c r="D20" s="6">
-        <v>200</v>
+      <c r="D20" s="18">
+        <v>850</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="7">
@@ -1647,19 +1650,19 @@
       <c r="L20" s="2"/>
       <c r="M20" s="19">
         <f t="shared" ref="M20" si="6">D20+H20-I20-J20-K20+M19</f>
-        <v>3900</v>
+        <v>5700</v>
       </c>
       <c r="N20" s="20">
         <f t="shared" ref="N20" si="7">M20-F20-G20</f>
-        <v>3900</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="21" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C21" s="1">
         <v>44477</v>
       </c>
-      <c r="D21" s="6">
-        <v>200</v>
+      <c r="D21" s="18">
+        <v>850</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="7">
@@ -1683,19 +1686,19 @@
       <c r="L21" s="2"/>
       <c r="M21" s="19">
         <f t="shared" ref="M21:M25" si="10">D21+H21-I21-J21-K21+M20</f>
-        <v>4100</v>
+        <v>6550</v>
       </c>
       <c r="N21" s="20">
         <f t="shared" ref="N21:N25" si="11">M21-F21-G21</f>
-        <v>4100</v>
+        <v>6550</v>
       </c>
     </row>
     <row r="22" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C22" s="1">
         <v>44491</v>
       </c>
-      <c r="D22" s="6">
-        <v>200</v>
+      <c r="D22" s="18">
+        <v>850</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="7">
@@ -1715,23 +1718,27 @@
       <c r="J22" s="8">
         <v>0</v>
       </c>
-      <c r="K22" s="8"/>
-      <c r="L22" s="2"/>
+      <c r="K22" s="8">
+        <v>4000</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="M22" s="19">
         <f t="shared" si="10"/>
-        <v>4300</v>
+        <v>3400</v>
       </c>
       <c r="N22" s="20">
         <f t="shared" si="11"/>
-        <v>4300</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="23" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C23" s="1">
         <v>44505</v>
       </c>
-      <c r="D23" s="6">
-        <v>200</v>
+      <c r="D23" s="18">
+        <v>850</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="7">
@@ -1751,23 +1758,27 @@
       <c r="J23" s="8">
         <v>0</v>
       </c>
-      <c r="K23" s="8"/>
-      <c r="L23" s="2"/>
+      <c r="K23" s="8">
+        <v>3000</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="M23" s="19">
         <f t="shared" si="10"/>
-        <v>4500</v>
+        <v>1250</v>
       </c>
       <c r="N23" s="20">
         <f t="shared" si="11"/>
-        <v>4500</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="24" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C24" s="1">
         <v>44519</v>
       </c>
-      <c r="D24" s="6">
-        <v>200</v>
+      <c r="D24" s="18">
+        <v>850</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="7">
@@ -1791,11 +1802,11 @@
       <c r="L24" s="2"/>
       <c r="M24" s="19">
         <f t="shared" si="10"/>
-        <v>4700</v>
+        <v>2100</v>
       </c>
       <c r="N24" s="20">
         <f t="shared" si="11"/>
-        <v>4700</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="25" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1823,11 +1834,11 @@
       <c r="L25" s="2"/>
       <c r="M25" s="19">
         <f t="shared" si="10"/>
-        <v>4700</v>
+        <v>2100</v>
       </c>
       <c r="N25" s="20">
         <f t="shared" si="11"/>
-        <v>4700</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="27" spans="3:14" ht="19.5" x14ac:dyDescent="0.3">

--- a/Documents/DebtPlan11_05_20.xlsx
+++ b/Documents/DebtPlan11_05_20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CodeBase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78F04BC-29F2-494B-9D58-E8632E7A7910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8CAE51-23E0-48C4-A79C-FC26651635FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-405" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PrimarySheet" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Debt Plan</t>
   </si>
@@ -89,22 +89,13 @@
     <t>EstDate</t>
   </si>
   <si>
-    <t>Paycheck+DebtForgiveness</t>
-  </si>
-  <si>
     <t>3rd Paycheck</t>
   </si>
   <si>
-    <t>Paycheck+GME</t>
-  </si>
-  <si>
-    <t>Ring?</t>
-  </si>
-  <si>
-    <t>Japan Set Aside</t>
-  </si>
-  <si>
-    <t>Wedding?!</t>
+    <t>GME</t>
+  </si>
+  <si>
+    <t>Debt Forgiveness</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +991,7 @@
   <dimension ref="C1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,7 +1128,7 @@
       </c>
       <c r="F7" s="7">
         <f>F6-I7</f>
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" ref="G7:G19" si="0">G6-J7</f>
@@ -1147,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="8">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="J7" s="8">
         <v>0</v>
@@ -1156,7 +1147,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="19">
         <f>D7+H7-I7-J7-K7+M6</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N7" s="20">
         <f>M7-F7-G7</f>
@@ -1168,14 +1159,14 @@
         <v>44295</v>
       </c>
       <c r="D8" s="18">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="7">
         <f t="shared" ref="F8:F19" si="1">F7-I8</f>
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="G8" s="7">
         <f t="shared" si="0"/>
@@ -1200,7 +1191,7 @@
       </c>
       <c r="N8" s="20">
         <f t="shared" ref="N8:N19" si="2">M8-F8-G8</f>
-        <v>-4500</v>
+        <v>-4700</v>
       </c>
     </row>
     <row r="9" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1208,14 +1199,14 @@
         <v>44309</v>
       </c>
       <c r="D9" s="18">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" si="0"/>
@@ -1225,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="8">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="J9" s="8">
         <v>0</v>
@@ -1236,11 +1227,11 @@
       <c r="L9" s="2"/>
       <c r="M9" s="19">
         <f t="shared" ref="M9:M19" si="3">D9+H9-I9-J9-K9+M8</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="N9" s="20">
         <f t="shared" si="2"/>
-        <v>-3500</v>
+        <v>-3900</v>
       </c>
     </row>
     <row r="10" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1248,14 +1239,14 @@
         <v>44323</v>
       </c>
       <c r="D10" s="18">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="0"/>
@@ -1276,11 +1267,11 @@
       <c r="L10" s="2"/>
       <c r="M10" s="19">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="N10" s="20">
         <f t="shared" si="2"/>
-        <v>-3300</v>
+        <v>-3900</v>
       </c>
     </row>
     <row r="11" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1288,14 +1279,14 @@
         <v>44337</v>
       </c>
       <c r="D11" s="18">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" si="0"/>
@@ -1316,11 +1307,11 @@
       <c r="L11" s="2"/>
       <c r="M11" s="19">
         <f t="shared" si="3"/>
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="N11" s="20">
         <f t="shared" si="2"/>
-        <v>-2950</v>
+        <v>-3900</v>
       </c>
     </row>
     <row r="12" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1328,14 +1319,14 @@
         <v>44351</v>
       </c>
       <c r="D12" s="18">
-        <v>3850</v>
+        <v>3500</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F12" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" si="0"/>
@@ -1354,11 +1345,11 @@
       <c r="L12" s="2"/>
       <c r="M12" s="19">
         <f t="shared" si="3"/>
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="N12" s="20">
         <f t="shared" si="2"/>
-        <v>900</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="13" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1366,14 +1357,14 @@
         <v>44365</v>
       </c>
       <c r="D13" s="18">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" si="0"/>
@@ -1392,11 +1383,11 @@
       <c r="L13" s="2"/>
       <c r="M13" s="19">
         <f t="shared" si="3"/>
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="N13" s="20">
         <f t="shared" si="2"/>
-        <v>1250</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="14" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1404,10 +1395,10 @@
         <v>44379</v>
       </c>
       <c r="D14" s="6">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" s="7">
         <f t="shared" si="1"/>
@@ -1421,24 +1412,20 @@
         <v>0</v>
       </c>
       <c r="I14" s="8">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="J14" s="8">
         <v>0</v>
       </c>
-      <c r="K14" s="8">
-        <v>1500</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="K14" s="8"/>
+      <c r="L14" s="2"/>
       <c r="M14" s="19">
         <f t="shared" si="3"/>
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N14" s="20">
         <f t="shared" si="2"/>
-        <v>600</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1446,7 +1433,7 @@
         <v>44393</v>
       </c>
       <c r="D15" s="18">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="7">
@@ -1470,11 +1457,11 @@
       <c r="L15" s="2"/>
       <c r="M15" s="19">
         <f t="shared" si="3"/>
-        <v>1450</v>
+        <v>300</v>
       </c>
       <c r="N15" s="20">
         <f t="shared" si="2"/>
-        <v>1450</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1482,7 +1469,7 @@
         <v>44407</v>
       </c>
       <c r="D16" s="18">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="7">
@@ -1506,11 +1493,11 @@
       <c r="L16" s="2"/>
       <c r="M16" s="19">
         <f t="shared" si="3"/>
-        <v>2300</v>
+        <v>300</v>
       </c>
       <c r="N16" s="20">
         <f t="shared" si="2"/>
-        <v>2300</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1518,7 +1505,7 @@
         <v>44421</v>
       </c>
       <c r="D17" s="18">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="7">
@@ -1542,11 +1529,11 @@
       <c r="L17" s="2"/>
       <c r="M17" s="19">
         <f t="shared" si="3"/>
-        <v>3150</v>
+        <v>300</v>
       </c>
       <c r="N17" s="20">
         <f t="shared" si="2"/>
-        <v>3150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1554,7 +1541,7 @@
         <v>44435</v>
       </c>
       <c r="D18" s="18">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="7">
@@ -1578,11 +1565,11 @@
       <c r="L18" s="2"/>
       <c r="M18" s="19">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>300</v>
       </c>
       <c r="N18" s="20">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1590,7 +1577,7 @@
         <v>44449</v>
       </c>
       <c r="D19" s="18">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="7">
@@ -1614,11 +1601,11 @@
       <c r="L19" s="2"/>
       <c r="M19" s="19">
         <f t="shared" si="3"/>
-        <v>4850</v>
+        <v>300</v>
       </c>
       <c r="N19" s="20">
         <f t="shared" si="2"/>
-        <v>4850</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1626,7 +1613,7 @@
         <v>44463</v>
       </c>
       <c r="D20" s="18">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="7">
@@ -1650,11 +1637,11 @@
       <c r="L20" s="2"/>
       <c r="M20" s="19">
         <f t="shared" ref="M20" si="6">D20+H20-I20-J20-K20+M19</f>
-        <v>5700</v>
+        <v>300</v>
       </c>
       <c r="N20" s="20">
         <f t="shared" ref="N20" si="7">M20-F20-G20</f>
-        <v>5700</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1662,7 +1649,7 @@
         <v>44477</v>
       </c>
       <c r="D21" s="18">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="7">
@@ -1686,11 +1673,11 @@
       <c r="L21" s="2"/>
       <c r="M21" s="19">
         <f t="shared" ref="M21:M25" si="10">D21+H21-I21-J21-K21+M20</f>
-        <v>6550</v>
+        <v>300</v>
       </c>
       <c r="N21" s="20">
         <f t="shared" ref="N21:N25" si="11">M21-F21-G21</f>
-        <v>6550</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1698,7 +1685,7 @@
         <v>44491</v>
       </c>
       <c r="D22" s="18">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="7">
@@ -1718,19 +1705,15 @@
       <c r="J22" s="8">
         <v>0</v>
       </c>
-      <c r="K22" s="8">
-        <v>4000</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="K22" s="8"/>
+      <c r="L22" s="2"/>
       <c r="M22" s="19">
         <f t="shared" si="10"/>
-        <v>3400</v>
+        <v>300</v>
       </c>
       <c r="N22" s="20">
         <f t="shared" si="11"/>
-        <v>3400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1738,7 +1721,7 @@
         <v>44505</v>
       </c>
       <c r="D23" s="18">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="7">
@@ -1758,19 +1741,15 @@
       <c r="J23" s="8">
         <v>0</v>
       </c>
-      <c r="K23" s="8">
-        <v>3000</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="K23" s="8"/>
+      <c r="L23" s="2"/>
       <c r="M23" s="19">
         <f t="shared" si="10"/>
-        <v>1250</v>
+        <v>300</v>
       </c>
       <c r="N23" s="20">
         <f t="shared" si="11"/>
-        <v>1250</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1778,7 +1757,7 @@
         <v>44519</v>
       </c>
       <c r="D24" s="18">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="7">
@@ -1802,11 +1781,11 @@
       <c r="L24" s="2"/>
       <c r="M24" s="19">
         <f t="shared" si="10"/>
-        <v>2100</v>
+        <v>300</v>
       </c>
       <c r="N24" s="20">
         <f t="shared" si="11"/>
-        <v>2100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1834,11 +1813,11 @@
       <c r="L25" s="2"/>
       <c r="M25" s="19">
         <f t="shared" si="10"/>
-        <v>2100</v>
+        <v>300</v>
       </c>
       <c r="N25" s="20">
         <f t="shared" si="11"/>
-        <v>2100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="3:14" ht="19.5" x14ac:dyDescent="0.3">
